--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H2">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q2">
-        <v>2.630995300670222</v>
+        <v>7.241744969721112</v>
       </c>
       <c r="R2">
-        <v>23.678957706032</v>
+        <v>65.17570472749001</v>
       </c>
       <c r="S2">
-        <v>0.07469342110044189</v>
+        <v>0.1486564600301399</v>
       </c>
       <c r="T2">
-        <v>0.07469342110044189</v>
+        <v>0.1486564600301399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H3">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.629899</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N3">
-        <v>1.889697</v>
+        <v>2.660905</v>
       </c>
       <c r="O3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q3">
-        <v>0.4721286174026667</v>
+        <v>1.829871846327778</v>
       </c>
       <c r="R3">
-        <v>4.249157556624</v>
+        <v>16.46884661695</v>
       </c>
       <c r="S3">
-        <v>0.01340363535588352</v>
+        <v>0.03756308350007793</v>
       </c>
       <c r="T3">
-        <v>0.01340363535588353</v>
+        <v>0.03756308350007795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.763321333333333</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H4">
-        <v>17.289964</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I4">
-        <v>0.6773994280135454</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J4">
-        <v>0.6773994280135454</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.510190333333334</v>
+        <v>0.030706</v>
       </c>
       <c r="N4">
-        <v>10.530571</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q4">
-        <v>20.23035483216044</v>
+        <v>0.06334842271333334</v>
       </c>
       <c r="R4">
-        <v>182.073193489444</v>
+        <v>0.5701358044200001</v>
       </c>
       <c r="S4">
-        <v>0.5743356562077427</v>
+        <v>0.001300398220101875</v>
       </c>
       <c r="T4">
-        <v>0.5743356562077427</v>
+        <v>0.001300398220101875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>17.289964</v>
       </c>
       <c r="I5">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J5">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.629899</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N5">
-        <v>1.889697</v>
+        <v>10.530571</v>
       </c>
       <c r="O5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q5">
-        <v>3.630310344545333</v>
+        <v>20.23035483216044</v>
       </c>
       <c r="R5">
-        <v>32.672793100908</v>
+        <v>182.073193489444</v>
       </c>
       <c r="S5">
-        <v>0.1030637718058026</v>
+        <v>0.4152829113807391</v>
       </c>
       <c r="T5">
-        <v>0.1030637718058026</v>
+        <v>0.4152829113807391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.889156</v>
+        <v>5.763321333333333</v>
       </c>
       <c r="H6">
-        <v>5.667468</v>
+        <v>17.289964</v>
       </c>
       <c r="I6">
-        <v>0.2220443941632887</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J6">
-        <v>0.2220443941632887</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.510190333333334</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N6">
-        <v>10.530571</v>
+        <v>2.660905</v>
       </c>
       <c r="O6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q6">
-        <v>6.631297129358667</v>
+        <v>5.11188351749111</v>
       </c>
       <c r="R6">
-        <v>59.68167416422801</v>
+        <v>46.00695165741999</v>
       </c>
       <c r="S6">
-        <v>0.1882611758368255</v>
+        <v>0.1049352760935343</v>
       </c>
       <c r="T6">
-        <v>0.1882611758368256</v>
+        <v>0.1049352760935343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.889156</v>
+        <v>5.763321333333333</v>
       </c>
       <c r="H7">
-        <v>5.667468</v>
+        <v>17.289964</v>
       </c>
       <c r="I7">
-        <v>0.2220443941632887</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J7">
-        <v>0.2220443941632887</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.629899</v>
+        <v>0.030706</v>
       </c>
       <c r="N7">
-        <v>1.889697</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O7">
-        <v>0.1521462338815877</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P7">
-        <v>0.1521462338815877</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q7">
-        <v>1.189977475244</v>
+        <v>0.1769685448613333</v>
       </c>
       <c r="R7">
-        <v>10.709797277196</v>
+        <v>1.592716903752</v>
       </c>
       <c r="S7">
-        <v>0.03378321832646317</v>
+        <v>0.00363275944206358</v>
       </c>
       <c r="T7">
-        <v>0.03378321832646319</v>
+        <v>0.003632759442063581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1060023333333334</v>
+        <v>2.101774</v>
       </c>
       <c r="H8">
-        <v>0.318007</v>
+        <v>6.305322</v>
       </c>
       <c r="I8">
-        <v>0.01245912136684053</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J8">
-        <v>0.01245912136684053</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,27 +933,27 @@
         <v>10.530571</v>
       </c>
       <c r="O8">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P8">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q8">
-        <v>0.3720883657774445</v>
+        <v>7.377626777651335</v>
       </c>
       <c r="R8">
-        <v>3.348795291997</v>
+        <v>66.39864099886201</v>
       </c>
       <c r="S8">
-        <v>0.01056351297340212</v>
+        <v>0.1514458027415803</v>
       </c>
       <c r="T8">
-        <v>0.01056351297340212</v>
+        <v>0.1514458027415803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.101774</v>
+      </c>
+      <c r="H9">
+        <v>6.305322</v>
+      </c>
+      <c r="I9">
+        <v>0.1910385065181404</v>
+      </c>
+      <c r="J9">
+        <v>0.1910385065181404</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.660905</v>
+      </c>
+      <c r="O9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q9">
+        <v>1.864206981823333</v>
+      </c>
+      <c r="R9">
+        <v>16.77786283641</v>
+      </c>
+      <c r="S9">
+        <v>0.03826790529631154</v>
+      </c>
+      <c r="T9">
+        <v>0.03826790529631154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.101774</v>
+      </c>
+      <c r="H10">
+        <v>6.305322</v>
+      </c>
+      <c r="I10">
+        <v>0.1910385065181404</v>
+      </c>
+      <c r="J10">
+        <v>0.1910385065181404</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.1060023333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.318007</v>
-      </c>
-      <c r="I9">
-        <v>0.01245912136684053</v>
-      </c>
-      <c r="J9">
-        <v>0.01245912136684053</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.629899</v>
-      </c>
-      <c r="N9">
-        <v>1.889697</v>
-      </c>
-      <c r="O9">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="P9">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="Q9">
-        <v>0.06677076376433334</v>
-      </c>
-      <c r="R9">
-        <v>0.6009368738790001</v>
-      </c>
-      <c r="S9">
-        <v>0.001895608393438406</v>
-      </c>
-      <c r="T9">
-        <v>0.001895608393438406</v>
+      <c r="M10">
+        <v>0.030706</v>
+      </c>
+      <c r="N10">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P10">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q10">
+        <v>0.064537072444</v>
+      </c>
+      <c r="R10">
+        <v>0.580833651996</v>
+      </c>
+      <c r="S10">
+        <v>0.001324798480248497</v>
+      </c>
+      <c r="T10">
+        <v>0.001324798480248497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.073675666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.221027</v>
+      </c>
+      <c r="I11">
+        <v>0.0975906048152031</v>
+      </c>
+      <c r="J11">
+        <v>0.09759060481520311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.510190333333334</v>
+      </c>
+      <c r="N11">
+        <v>10.530571</v>
+      </c>
+      <c r="O11">
+        <v>0.7927501397588634</v>
+      </c>
+      <c r="P11">
+        <v>0.7927501397588635</v>
+      </c>
+      <c r="Q11">
+        <v>3.768805946268556</v>
+      </c>
+      <c r="R11">
+        <v>33.919253516417</v>
+      </c>
+      <c r="S11">
+        <v>0.07736496560640427</v>
+      </c>
+      <c r="T11">
+        <v>0.07736496560640428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.073675666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.221027</v>
+      </c>
+      <c r="I12">
+        <v>0.0975906048152031</v>
+      </c>
+      <c r="J12">
+        <v>0.09759060481520311</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N12">
+        <v>2.660905</v>
+      </c>
+      <c r="O12">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P12">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q12">
+        <v>0.9523163166038888</v>
+      </c>
+      <c r="R12">
+        <v>8.570846849435</v>
+      </c>
+      <c r="S12">
+        <v>0.01954887572638835</v>
+      </c>
+      <c r="T12">
+        <v>0.01954887572638836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.073675666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.221027</v>
+      </c>
+      <c r="I13">
+        <v>0.0975906048152031</v>
+      </c>
+      <c r="J13">
+        <v>0.09759060481520311</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.030706</v>
+      </c>
+      <c r="N13">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P13">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q13">
+        <v>0.03296828502066667</v>
+      </c>
+      <c r="R13">
+        <v>0.296714565186</v>
+      </c>
+      <c r="S13">
+        <v>0.000676763482410474</v>
+      </c>
+      <c r="T13">
+        <v>0.0006767634824104742</v>
       </c>
     </row>
   </sheetData>
